--- a/ConfigurationFiles/Score_cfg_PC_Shotgun.xlsx
+++ b/ConfigurationFiles/Score_cfg_PC_Shotgun.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
